--- a/medicine/Enfance/Jacqueline_de_Boulle/Jacqueline_de_Boulle.xlsx
+++ b/medicine/Enfance/Jacqueline_de_Boulle/Jacqueline_de_Boulle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline de Boulle, née en 1922, est une femme de lettres belge, auteure de roman policier et de littérature d'enfance et de jeunesse. Elle utilise les pseudonymes masculins Georges Tiffany et Tim Timmy.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1954, pour son roman Le Desperado, elle est lauréate du Prix Victor Rossel. Sous le pseudonyme de Georges Tiffany, elle publie au Fleuve noir quinze romans policiers et sous celui de Tim Timmy une série de littérature d’enfance et de jeunesse La Chronique Andrieux comportant neufs romans.
 </t>
@@ -544,15 +558,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Jacqueline de Boulle
-Le Desperado, Éditions Julliard (1955)
+          <t>Romans signés Jacqueline de Boulle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Desperado, Éditions Julliard (1955)
 Chuquimata, Collection Amours et aventure, Éditions Mondiales Del Duca (1957)
 L'amour est un serpent gris, Éditions Mondiales Del Duca (1958)
 Rossana plus douce qu'un péché, Éditions Mondiales Del Duca (1959)
 Lilo, Éditions Mondiales Del Duca (1960)
-L'Allumeuse, Éditions Mondiales Del Duca (1963)
-Romans signés Georges Tiffany
-Le Singe bleu, Spécial Police no 426 (1964)
+L'Allumeuse, Éditions Mondiales Del Duca (1963)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Georges Tiffany</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Singe bleu, Spécial Police no 426 (1964)
 Un meurtre dans les yeux, Spécial Police no 461 (1965)
 La Main tranchée, Spécial Police no 481 (1965)
 La Morte dans la lagune, Spécial Police no 510 (1966)
@@ -566,12 +619,83 @@
 La Dame aux corbeaux, Spécial Police no 785 (1970)
 La Cage de verre, Spécial Police no 821 (1970)
 La Mort en chaîne, Spécial Police no 895 (1971)
-Le Bouillon d'araignées, Spécial Police no 948 (1972)
-Roman de littérature d'enfance et de jeunesse signé Jacqueline de Boulle
-Flavia, jeune fille romaine, série Mademoiselle no 23 Marabout-junior
-Romans de littérature d'enfance et de jeunesse signés Tim Timmy
-Série La Chronique Andrieux
-La Famille Andrieux, série Mademoiselle no 27 Marabout-junior (1957)
+Le Bouillon d'araignées, Spécial Police no 948 (1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roman de littérature d'enfance et de jeunesse signé Jacqueline de Boulle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flavia, jeune fille romaine, série Mademoiselle no 23 Marabout-junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse signés Tim Timmy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série La Chronique Andrieux</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Famille Andrieux, série Mademoiselle no 27 Marabout-junior (1957)
 Les Locataires de Madame Andrieux, série Mademoiselle no 52 Marabout-junior (1958)
 Les Andrieux aux sports d'hiver, série Mademoiselle no 61 Marabout-junior (1959)
 Le Retour de Polochon, série Mademoiselle no 80 Marabout-junior (1959)
@@ -579,42 +703,112 @@
 La Défaite de Jo..., série Mademoiselle no 87 Marabout-junior (1960)
 Les Andrieux, série Mademoiselle no 92 Marabout-junior (1960)
 Sa Majesté Poum Andrieux, série Mademoiselle no 138 Marabout-junior (1962)
-Mystère aux Antilles, série Mademoiselle no 156 Marabout-junior (1962)
-Nouvelle
-L'Homme qui voyait la mort, Fiction no 101 (avril 1962) (coécrit avec Lino Matassoni)
-Autres ouvrages signés Jacqueline de Boulle
-La Cuisine facile, Rossel (1974)
+Mystère aux Antilles, série Mademoiselle no 156 Marabout-junior (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Homme qui voyait la mort, Fiction no 101 (avril 1962) (coécrit avec Lino Matassoni)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_de_Boulle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages signés Jacqueline de Boulle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Cuisine facile, Rossel (1974)
 Recevoir facilement, Rossel (1976)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jacqueline_de_Boulle</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacqueline_de_Boulle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lettres françaises de Belgique: 1981-1990, Raymond Trousson [1]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lettres françaises de Belgique: 1981-1990, Raymond Trousson </t>
         </is>
       </c>
     </row>
